--- a/output_by_subject/EE486.xlsx
+++ b/output_by_subject/EE486.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3831,6 +3831,160 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1801EE02</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1801EE47</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1801EE48</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1801EE50</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1801EE51</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1801EE52</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1801EE53</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>EE486</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
